--- a/notebooks/city_bus_stations.xlsx
+++ b/notebooks/city_bus_stations.xlsx
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Pekelharingstraat</t>
+          <t>Amsterdam, Pekelharingstraat</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fizeaustraat</t>
+          <t>Amsterdam, Fizeaustraat</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pekelharingstraat</t>
+          <t>Amsterdam, Pekelharingstraat</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Cornelis Lelylaan</t>
+          <t>Amsterdam, Cornelis Lelylaan</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Robert Fruinlaan</t>
+          <t>Amsterdam, Robert Fruinlaan</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nachtwachtlaan</t>
+          <t>Amsterdam, Nachtwachtlaan</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nachtwachtlaan</t>
+          <t>Amsterdam, Nachtwachtlaan</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nassaukade</t>
+          <t>Amsterdam, Nassaukade</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Oostenburgergracht</t>
+          <t>Amsterdam, Oostenburgergracht</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Veelaan</t>
+          <t>Amsterdam, Veelaan</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Borneolaan</t>
+          <t>Amsterdam, Borneolaan</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Prins Hendrikkade</t>
+          <t>Amsterdam, Prins Hendrikkade</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
+          <t>Amsterdam, C. van Eesterenlaan</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Prins Hendrikkade</t>
+          <t>Amsterdam, Prins Hendrikkade</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Piet Heinkade</t>
+          <t>Amsterdam, Piet Heinkade</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Volkstuin</t>
+          <t>Amsterdam, Volkstuin</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Beemsterstraat</t>
+          <t>Amsterdam, Beemsterstraat</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Beemsterstraat</t>
+          <t>Amsterdam, Beemsterstraat</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Th. Weeversweg</t>
+          <t>Amsterdam, Th. Weeversweg</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Amsterdam, Station Zuid</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Naaldwijkstraat</t>
+          <t>Amsterdam, Naaldwijkstraat</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Amsterdam, Hoofddorpplein</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3965,7 +3965,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Oostzanerdijk</t>
+          <t>Amsterdam, Oostzanerdijk</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Oostzanerdijk</t>
+          <t>Amsterdam, Oostzanerdijk</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Kadijksplein</t>
+          <t>Amsterdam, Kadijksplein</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>James Wattstraat</t>
+          <t>Amsterdam, James Wattstraat</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Amsterdam, Mercatorplein</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Lange Vonder</t>
+          <t>Amsterdam, Lange Vonder</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Kadoelenpad</t>
+          <t>Amsterdam, Kadoelenpad</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Vorticellaweg</t>
+          <t>Amsterdam, Vorticellaweg</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -5054,7 +5054,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sierplein</t>
+          <t>Amsterdam, Sierplein</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vorticellaweg</t>
+          <t>Amsterdam, Vorticellaweg</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>De Boelelaan / VU</t>
+          <t>Amsterdam, De Boelelaan / VU</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>De Boelelaan / VU</t>
+          <t>Amsterdam, De Boelelaan / VU</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Amsterdam, Leidseplein</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Anderlechtlaan</t>
+          <t>Amsterdam, Anderlechtlaan</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Oude Haagseweg</t>
+          <t>Amsterdam, Oude Haagseweg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Wittenburgergracht</t>
+          <t>Amsterdam, Wittenburgergracht</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5832,7 +5832,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Wittenburgergracht</t>
+          <t>Amsterdam, Wittenburgergracht</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Zaaiersweg</t>
+          <t>Amsterdam, Zaaiersweg</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Amsterdam, Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6147,7 +6147,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Oude Haagseweg</t>
+          <t>Amsterdam, Oude Haagseweg</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Anderlechtlaan</t>
+          <t>Amsterdam, Anderlechtlaan</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6252,7 +6252,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>J. Drijverweg</t>
+          <t>Amsterdam, J. Drijverweg</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6497,7 +6497,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Kadijksplein</t>
+          <t>Amsterdam, Kadijksplein</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6602,7 +6602,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>C.K. Eloutstraat</t>
+          <t>Amsterdam, C.K. Eloutstraat</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Holterbergweg</t>
+          <t>Amsterdam, Holterbergweg</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6742,7 +6742,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Het Funen</t>
+          <t>Amsterdam, Het Funen</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Amsterdam, Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Amsterdam, Zuiderzeeweg</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6847,7 +6847,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Dijkmanshuizenstraat</t>
+          <t>Amsterdam, Dijkmanshuizenstraat</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
+          <t>Amsterdam, Zeeburgerdijk</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Amsterdam, Hoofddorpplein</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7201,7 +7201,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Liergouw</t>
+          <t>Amsterdam, Liergouw</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Liergouw</t>
+          <t>Amsterdam, Liergouw</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Plein '40-'45</t>
+          <t>Amsterdam, Plein '40-'45</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>G.J. Scheurleerweg</t>
+          <t>Amsterdam, G.J. Scheurleerweg</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>C.K. Eloutstraat</t>
+          <t>Amsterdam, C.K. Eloutstraat</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7726,7 +7726,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Zaaiersweg</t>
+          <t>Amsterdam, Zaaiersweg</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7796,7 +7796,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Het Funen</t>
+          <t>Amsterdam, Het Funen</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Kattenburgerplein</t>
+          <t>Amsterdam, Kattenburgerplein</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Kattenburgerplein</t>
+          <t>Amsterdam, Kattenburgerplein</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Hoofdweg</t>
+          <t>Amsterdam, Hoofdweg</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Maassluisstraat</t>
+          <t>Amsterdam, Maassluisstraat</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Amsterdam, Station Lelylaan</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Amsterdam, Station Lelylaan</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Amsterdam, Station Lelylaan</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Amsterdam, Station Lelylaan</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Station Lelylaan</t>
+          <t>Amsterdam, Station Lelylaan</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8706,7 +8706,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>G.J. Scheurleerweg</t>
+          <t>Amsterdam, G.J. Scheurleerweg</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Oostenburgergracht</t>
+          <t>Amsterdam, Oostenburgergracht</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>Spaarndammerstraat</t>
+          <t>Amsterdam, Spaarndammerstraat</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9095,7 +9095,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>Houtmankade</t>
+          <t>Amsterdam, Houtmankade</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>C. van Eesterenlaan</t>
+          <t>Amsterdam, C. van Eesterenlaan</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Javaplein</t>
+          <t>Amsterdam, Javaplein</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Nassauplein</t>
+          <t>Amsterdam, Nassauplein</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Nassauplein</t>
+          <t>Amsterdam, Nassauplein</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Amsterdam, Elandsgracht</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
+          <t>Amsterdam, Lumièrestraat</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Lumièrestraat</t>
+          <t>Amsterdam, Lumièrestraat</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -9620,7 +9620,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Station Bijlmer ArenA</t>
+          <t>Amsterdam, Station Bijlmer ArenA</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Bijlmerplein</t>
+          <t>Amsterdam, Bijlmerplein</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Bijlmerplein</t>
+          <t>Amsterdam, Bijlmerplein</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10600,7 +10600,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Pieter Oosterhuisstraat</t>
+          <t>Amsterdam, Pieter Oosterhuisstraat</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Pieter Oosterhuisstraat</t>
+          <t>Amsterdam, Pieter Oosterhuisstraat</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
+          <t>Amsterdam, Diemerparklaan</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10705,7 +10705,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Diemerparklaan</t>
+          <t>Amsterdam, Diemerparklaan</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
+          <t>Amsterdam, Vennepluimstraat</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Vennepluimstraat</t>
+          <t>Amsterdam, Vennepluimstraat</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstraat</t>
+          <t>Amsterdam, Haarlemmermeerstraat</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Amsterdam, Prinses Irenestraat</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Amsterdam, Prinses Irenestraat</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Justus Lipsiusstraat</t>
+          <t>Amsterdam, Justus Lipsiusstraat</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>Justus Lipsiusstraat</t>
+          <t>Amsterdam, Justus Lipsiusstraat</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11024,7 +11024,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Markthallen</t>
+          <t>Amsterdam, Markthallen</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11059,7 +11059,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>Markthallen</t>
+          <t>Amsterdam, Markthallen</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11094,7 +11094,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Robert Fruinlaan</t>
+          <t>Amsterdam, Robert Fruinlaan</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Cornelis Lelylaan</t>
+          <t>Amsterdam, Cornelis Lelylaan</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11234,7 +11234,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Jan Evertsenstraat</t>
+          <t>Amsterdam, Jan Evertsenstraat</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Jan Evertsenstraat</t>
+          <t>Amsterdam, Jan Evertsenstraat</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Amsterdam, Bos en Lommerweg</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Buikslotermeerplein</t>
+          <t>Amsterdam, Buikslotermeerplein</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -11584,7 +11584,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>J. Drijverweg</t>
+          <t>Amsterdam, J. Drijverweg</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -11619,7 +11619,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Buikslotermeerplein</t>
+          <t>Amsterdam, Buikslotermeerplein</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -11654,7 +11654,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Amsterdam, Waalstraat</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -11934,7 +11934,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -11969,7 +11969,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -12074,7 +12074,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Centraal Station</t>
+          <t>Amsterdam, Centraal Station</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Van Nijenrodeweg</t>
+          <t>Amsterdam, Van Nijenrodeweg</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>Van Nijenrodeweg</t>
+          <t>Amsterdam, Van Nijenrodeweg</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -12568,7 +12568,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -12603,7 +12603,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
@@ -12673,7 +12673,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Hoogoorddreef/Atlas</t>
+          <t>Amsterdam, Hoogoorddreef/Atlas</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -12848,7 +12848,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
@@ -12883,7 +12883,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -12918,7 +12918,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -13058,7 +13058,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Station Sloterdijk</t>
+          <t>Amsterdam, Station Sloterdijk</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Amsterdam, Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
@@ -13758,7 +13758,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Van Boshuizenstraat</t>
+          <t>Amsterdam, Van Boshuizenstraat</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Echtenstein</t>
+          <t>Amsterdam, Echtenstein</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -14108,7 +14108,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Eekholt</t>
+          <t>Amsterdam, Eekholt</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -14143,7 +14143,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Eekholt</t>
+          <t>Amsterdam, Eekholt</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Dennenrode</t>
+          <t>Amsterdam, Dennenrode</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -14213,7 +14213,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Dennenrode</t>
+          <t>Amsterdam, Dennenrode</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -14248,7 +14248,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Dolingadreef</t>
+          <t>Amsterdam, Dolingadreef</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Dolingadreef</t>
+          <t>Amsterdam, Dolingadreef</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -14318,7 +14318,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Echtenstein</t>
+          <t>Amsterdam, Echtenstein</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
@@ -14353,7 +14353,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Foppingadreef</t>
+          <t>Amsterdam, Foppingadreef</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -14388,7 +14388,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Foppingadreef</t>
+          <t>Amsterdam, Foppingadreef</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Kattenburgerbrug</t>
+          <t>Amsterdam, Kattenburgerbrug</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Ferdinand Bolstraat</t>
+          <t>Amsterdam, Ferdinand Bolstraat</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Amsterdam, Leidseplein</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Surinameplein</t>
+          <t>Amsterdam, Surinameplein</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
+          <t>Amsterdam, Steigereiland</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Fizeaustraat</t>
+          <t>Amsterdam, Fizeaustraat</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Maxwellstraat</t>
+          <t>Amsterdam, Maxwellstraat</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Amsterdam, Zuiderzeeweg</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
@@ -16348,7 +16348,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Oosterlengte</t>
+          <t>Amsterdam, Oosterlengte</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -16383,7 +16383,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Oosterlengte</t>
+          <t>Amsterdam, Oosterlengte</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -16418,7 +16418,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Th. Weeversweg</t>
+          <t>Amsterdam, Th. Weeversweg</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -16453,7 +16453,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Dijkmanshuizenstraat</t>
+          <t>Amsterdam, Dijkmanshuizenstraat</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>Volendammerweg</t>
+          <t>Amsterdam, Volendammerweg</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>Hilversumstraat</t>
+          <t>Amsterdam, Hilversumstraat</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Hilversumstraat</t>
+          <t>Amsterdam, Hilversumstraat</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
@@ -16593,7 +16593,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Maxwellstraat</t>
+          <t>Amsterdam, Maxwellstraat</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Beukenplein</t>
+          <t>Amsterdam, Beukenplein</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -17083,7 +17083,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Beukenplein</t>
+          <t>Amsterdam, Beukenplein</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -17118,7 +17118,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Krugerplein</t>
+          <t>Amsterdam, Krugerplein</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Krugerplein</t>
+          <t>Amsterdam, Krugerplein</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -17188,7 +17188,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>James Wattstraat</t>
+          <t>Amsterdam, James Wattstraat</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -17538,7 +17538,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Amsterdam, Kruislaan</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
@@ -17573,7 +17573,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Amsterdam, Kruislaan</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Valentijnkade</t>
+          <t>Amsterdam, Valentijnkade</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Valentijnkade</t>
+          <t>Amsterdam, Valentijnkade</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
@@ -20793,7 +20793,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>R.J.H. Fortuynplein</t>
+          <t>Amsterdam, R.J.H. Fortuynplein</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>Kattenburgerbrug</t>
+          <t>Amsterdam, Kattenburgerbrug</t>
         </is>
       </c>
       <c r="G586" t="inlineStr">
@@ -21038,7 +21038,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Amsterdam, Hoofddorpplein</t>
         </is>
       </c>
       <c r="G588" t="inlineStr">
@@ -21073,7 +21073,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>Naaldwijkstraat</t>
+          <t>Amsterdam, Naaldwijkstraat</t>
         </is>
       </c>
       <c r="G589" t="inlineStr">
@@ -21108,7 +21108,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>Maassluisstraat</t>
+          <t>Amsterdam, Maassluisstraat</t>
         </is>
       </c>
       <c r="G590" t="inlineStr">
@@ -22158,7 +22158,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Borneolaan</t>
+          <t>Amsterdam, Borneolaan</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
@@ -22193,7 +22193,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>Maxwellstraat</t>
+          <t>Amsterdam, Maxwellstraat</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
@@ -22228,7 +22228,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Beethovenstraat</t>
+          <t>Amsterdam, Beethovenstraat</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>Apollolaan</t>
+          <t>Amsterdam, Apollolaan</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
@@ -22298,7 +22298,7 @@
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>Apollolaan</t>
+          <t>Amsterdam, Apollolaan</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
@@ -22333,7 +22333,7 @@
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
+          <t>Amsterdam, Scheldestraat</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>Scheldestraat</t>
+          <t>Amsterdam, Scheldestraat</t>
         </is>
       </c>
       <c r="G626" t="inlineStr">
@@ -22403,7 +22403,7 @@
       </c>
       <c r="F627" t="inlineStr">
         <is>
-          <t>Middenweg</t>
+          <t>Amsterdam, Middenweg</t>
         </is>
       </c>
       <c r="G627" t="inlineStr">
@@ -22438,7 +22438,7 @@
       </c>
       <c r="F628" t="inlineStr">
         <is>
-          <t>Middenweg</t>
+          <t>Amsterdam, Middenweg</t>
         </is>
       </c>
       <c r="G628" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="F632" t="inlineStr">
         <is>
-          <t>Javaplein</t>
+          <t>Amsterdam, Javaplein</t>
         </is>
       </c>
       <c r="G632" t="inlineStr">
@@ -22613,7 +22613,7 @@
       </c>
       <c r="F633" t="inlineStr">
         <is>
-          <t>Zeeburgerdijk</t>
+          <t>Amsterdam, Zeeburgerdijk</t>
         </is>
       </c>
       <c r="G633" t="inlineStr">
@@ -22648,7 +22648,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Veelaan</t>
+          <t>Amsterdam, Veelaan</t>
         </is>
       </c>
       <c r="G634" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="F642" t="inlineStr">
         <is>
-          <t>Piet Wiedijkstraat</t>
+          <t>Amsterdam, Piet Wiedijkstraat</t>
         </is>
       </c>
       <c r="G642" t="inlineStr">
@@ -22963,7 +22963,7 @@
       </c>
       <c r="F643" t="inlineStr">
         <is>
-          <t>Van Mourik Broekmanstraat</t>
+          <t>Amsterdam, Van Mourik Broekmanstraat</t>
         </is>
       </c>
       <c r="G643" t="inlineStr">
@@ -22998,7 +22998,7 @@
       </c>
       <c r="F644" t="inlineStr">
         <is>
-          <t>Van Mourik Broekmanstraat</t>
+          <t>Amsterdam, Van Mourik Broekmanstraat</t>
         </is>
       </c>
       <c r="G644" t="inlineStr">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="F645" t="inlineStr">
         <is>
-          <t>Hemsterhuisstraat</t>
+          <t>Amsterdam, Hemsterhuisstraat</t>
         </is>
       </c>
       <c r="G645" t="inlineStr">
@@ -23733,7 +23733,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>Hemsterhuisstraat</t>
+          <t>Amsterdam, Hemsterhuisstraat</t>
         </is>
       </c>
       <c r="G665" t="inlineStr">
@@ -23768,7 +23768,7 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>Willem van Weldammelaan</t>
+          <t>Amsterdam, Willem van Weldammelaan</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
@@ -24608,7 +24608,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Amsterdam, Weesperplein</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
@@ -24643,7 +24643,7 @@
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Amsterdam, Waterlooplein</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
@@ -24678,7 +24678,7 @@
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>Lange Vonder</t>
+          <t>Amsterdam, Lange Vonder</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
@@ -24713,7 +24713,7 @@
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>Volendammerweg</t>
+          <t>Amsterdam, Volendammerweg</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
@@ -24748,7 +24748,7 @@
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>Kadoelenpad</t>
+          <t>Amsterdam, Kadoelenpad</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
@@ -25308,7 +25308,7 @@
       </c>
       <c r="F710" t="inlineStr">
         <is>
-          <t>Gillis van Ledenberchstraat</t>
+          <t>Amsterdam, Gillis van Ledenberchstraat</t>
         </is>
       </c>
       <c r="G710" t="inlineStr">
@@ -25343,7 +25343,7 @@
       </c>
       <c r="F711" t="inlineStr">
         <is>
-          <t>Gillis van Ledenberchstraat</t>
+          <t>Amsterdam, Gillis van Ledenberchstraat</t>
         </is>
       </c>
       <c r="G711" t="inlineStr">
@@ -25623,7 +25623,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>Louis Bouwmeesterstraat</t>
+          <t>Amsterdam, Louis Bouwmeesterstraat</t>
         </is>
       </c>
       <c r="G719" t="inlineStr">
@@ -25658,7 +25658,7 @@
       </c>
       <c r="F720" t="inlineStr">
         <is>
-          <t>Louis Bouwmeesterstraat</t>
+          <t>Amsterdam, Louis Bouwmeesterstraat</t>
         </is>
       </c>
       <c r="G720" t="inlineStr">
@@ -25693,7 +25693,7 @@
       </c>
       <c r="F721" t="inlineStr">
         <is>
-          <t>Jan Tooropstraat</t>
+          <t>Amsterdam, Jan Tooropstraat</t>
         </is>
       </c>
       <c r="G721" t="inlineStr">
@@ -25728,7 +25728,7 @@
       </c>
       <c r="F722" t="inlineStr">
         <is>
-          <t>Jan Tooropstraat</t>
+          <t>Amsterdam, Jan Tooropstraat</t>
         </is>
       </c>
       <c r="G722" t="inlineStr">
@@ -25763,7 +25763,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Amsterdam, Derkinderenstraat</t>
         </is>
       </c>
       <c r="G723" t="inlineStr">
@@ -25798,7 +25798,7 @@
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>Derkinderenstraat</t>
+          <t>Amsterdam, Derkinderenstraat</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
@@ -26113,7 +26113,7 @@
       </c>
       <c r="F733" t="inlineStr">
         <is>
-          <t>Delflandlaan</t>
+          <t>Amsterdam, Delflandlaan</t>
         </is>
       </c>
       <c r="G733" t="inlineStr">
@@ -26148,7 +26148,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>Prins Bernhardplein</t>
+          <t>Amsterdam, Prins Bernhardplein</t>
         </is>
       </c>
       <c r="G734" t="inlineStr">
@@ -26288,7 +26288,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>Ruysdaelkade</t>
+          <t>Amsterdam, Ruysdaelkade</t>
         </is>
       </c>
       <c r="G738" t="inlineStr">
@@ -26323,7 +26323,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>Ruysdaelkade</t>
+          <t>Amsterdam, Ruysdaelkade</t>
         </is>
       </c>
       <c r="G739" t="inlineStr">
@@ -26428,7 +26428,7 @@
       </c>
       <c r="F742" t="inlineStr">
         <is>
-          <t>Prins Bernhardplein</t>
+          <t>Amsterdam, Prins Bernhardplein</t>
         </is>
       </c>
       <c r="G742" t="inlineStr">
@@ -26568,7 +26568,7 @@
       </c>
       <c r="F746" t="inlineStr">
         <is>
-          <t>Ferdinand Bolstraat</t>
+          <t>Amsterdam, Ferdinand Bolstraat</t>
         </is>
       </c>
       <c r="G746" t="inlineStr">
@@ -27233,7 +27233,7 @@
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>IJ tunnel</t>
+          <t>Amsterdam, IJ tunnel</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>Kattenburg</t>
+          <t>Amsterdam, Kattenburg</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
@@ -27583,7 +27583,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>Oostelijke Handelskade</t>
+          <t>Amsterdam, Oostelijke Handelskade</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -27618,7 +27618,7 @@
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
+          <t>Amsterdam, Bob Haarmslaan</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="F777" t="inlineStr">
         <is>
-          <t>Steigereiland</t>
+          <t>Amsterdam, Steigereiland</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
@@ -27688,7 +27688,7 @@
       </c>
       <c r="F778" t="inlineStr">
         <is>
-          <t>Bob Haarmslaan</t>
+          <t>Amsterdam, Bob Haarmslaan</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
@@ -27723,7 +27723,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>Oostelijke Handelskade</t>
+          <t>Amsterdam, Oostelijke Handelskade</t>
         </is>
       </c>
       <c r="G779" t="inlineStr">
@@ -27758,7 +27758,7 @@
       </c>
       <c r="F780" t="inlineStr">
         <is>
-          <t>Kattenburg</t>
+          <t>Amsterdam, Kattenburg</t>
         </is>
       </c>
       <c r="G780" t="inlineStr">
@@ -28248,7 +28248,7 @@
       </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>Houtmankade</t>
+          <t>Amsterdam, Houtmankade</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>Holterbergweg</t>
+          <t>Amsterdam, Holterbergweg</t>
         </is>
       </c>
       <c r="G875" t="inlineStr">
@@ -31328,7 +31328,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>Scheldeplein</t>
+          <t>Amsterdam, Scheldeplein</t>
         </is>
       </c>
       <c r="G882" t="inlineStr">
@@ -31363,7 +31363,7 @@
       </c>
       <c r="F883" t="inlineStr">
         <is>
-          <t>Scheldeplein</t>
+          <t>Amsterdam, Scheldeplein</t>
         </is>
       </c>
       <c r="G883" t="inlineStr">
@@ -32133,7 +32133,7 @@
       </c>
       <c r="F905" t="inlineStr">
         <is>
-          <t>Prins Hendrikkade</t>
+          <t>Amsterdam, Prins Hendrikkade</t>
         </is>
       </c>
       <c r="G905" t="inlineStr">
@@ -32203,7 +32203,7 @@
       </c>
       <c r="F907" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Amsterdam, Amstelveenseweg</t>
         </is>
       </c>
       <c r="G907" t="inlineStr">
@@ -32413,7 +32413,7 @@
       </c>
       <c r="F913" t="inlineStr">
         <is>
-          <t>VU Medisch Centrum</t>
+          <t>Amsterdam, VU Medisch Centrum</t>
         </is>
       </c>
       <c r="G913" t="inlineStr">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>VU Medisch Centrum</t>
+          <t>Amsterdam, VU Medisch Centrum</t>
         </is>
       </c>
       <c r="G919" t="inlineStr">
@@ -32693,7 +32693,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>VUmc Hoofdingang</t>
+          <t>Amsterdam, VUmc Hoofdingang</t>
         </is>
       </c>
       <c r="G921" t="inlineStr">
@@ -32728,7 +32728,7 @@
       </c>
       <c r="F922" t="inlineStr">
         <is>
-          <t>VUmc Hoofdingang</t>
+          <t>Amsterdam, VUmc Hoofdingang</t>
         </is>
       </c>
       <c r="G922" t="inlineStr">
@@ -34128,7 +34128,7 @@
       </c>
       <c r="F962" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G962" t="inlineStr">
@@ -34163,7 +34163,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G963" t="inlineStr">
@@ -34198,7 +34198,7 @@
       </c>
       <c r="F964" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G964" t="inlineStr">
@@ -34233,7 +34233,7 @@
       </c>
       <c r="F965" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G965" t="inlineStr">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="F966" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G966" t="inlineStr">
@@ -34303,7 +34303,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G967" t="inlineStr">
@@ -34338,7 +34338,7 @@
       </c>
       <c r="F968" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G968" t="inlineStr">
@@ -34373,7 +34373,7 @@
       </c>
       <c r="F969" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G969" t="inlineStr">
@@ -34408,7 +34408,7 @@
       </c>
       <c r="F970" t="inlineStr">
         <is>
-          <t>Amstelstation</t>
+          <t>Amsterdam, Amstelstation</t>
         </is>
       </c>
       <c r="G970" t="inlineStr">
@@ -34443,7 +34443,7 @@
       </c>
       <c r="F971" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G971" t="inlineStr">
@@ -34478,7 +34478,7 @@
       </c>
       <c r="F972" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G972" t="inlineStr">
@@ -34513,7 +34513,7 @@
       </c>
       <c r="F973" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G973" t="inlineStr">
@@ -34548,7 +34548,7 @@
       </c>
       <c r="F974" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G974" t="inlineStr">
@@ -34583,7 +34583,7 @@
       </c>
       <c r="F975" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G975" t="inlineStr">
@@ -34618,7 +34618,7 @@
       </c>
       <c r="F976" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G976" t="inlineStr">
@@ -34653,7 +34653,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G977" t="inlineStr">
@@ -34688,7 +34688,7 @@
       </c>
       <c r="F978" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G978" t="inlineStr">
@@ -34723,7 +34723,7 @@
       </c>
       <c r="F979" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G979" t="inlineStr">
@@ -34793,7 +34793,7 @@
       </c>
       <c r="F981" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G981" t="inlineStr">
@@ -34828,7 +34828,7 @@
       </c>
       <c r="F982" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G982" t="inlineStr">
@@ -34863,7 +34863,7 @@
       </c>
       <c r="F983" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G983" t="inlineStr">
@@ -34898,7 +34898,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G984" t="inlineStr">
@@ -34933,7 +34933,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G985" t="inlineStr">
@@ -34968,7 +34968,7 @@
       </c>
       <c r="F986" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G986" t="inlineStr">
@@ -35003,7 +35003,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Amsterdam, Elandsgracht</t>
         </is>
       </c>
       <c r="G987" t="inlineStr">
@@ -35318,7 +35318,7 @@
       </c>
       <c r="F996" t="inlineStr">
         <is>
-          <t>Ventweg</t>
+          <t>Amsterdam, Ventweg</t>
         </is>
       </c>
       <c r="G996" t="inlineStr">
@@ -35353,7 +35353,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>Ventweg</t>
+          <t>Amsterdam, Ventweg</t>
         </is>
       </c>
       <c r="G997" t="inlineStr">
@@ -35388,7 +35388,7 @@
       </c>
       <c r="F998" t="inlineStr">
         <is>
-          <t>De Entree</t>
+          <t>Amsterdam, De Entree</t>
         </is>
       </c>
       <c r="G998" t="inlineStr">
@@ -35423,7 +35423,7 @@
       </c>
       <c r="F999" t="inlineStr">
         <is>
-          <t>De Entree</t>
+          <t>Amsterdam, De Entree</t>
         </is>
       </c>
       <c r="G999" t="inlineStr">
@@ -35703,7 +35703,7 @@
       </c>
       <c r="F1007" t="inlineStr">
         <is>
-          <t>Sierplein</t>
+          <t>Amsterdam, Sierplein</t>
         </is>
       </c>
       <c r="G1007" t="inlineStr">
@@ -37208,7 +37208,7 @@
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Amsterdam, Rozengracht</t>
         </is>
       </c>
       <c r="G1050" t="inlineStr">
@@ -37243,7 +37243,7 @@
       </c>
       <c r="F1051" t="inlineStr">
         <is>
-          <t>Bloemgracht</t>
+          <t>Amsterdam, Bloemgracht</t>
         </is>
       </c>
       <c r="G1051" t="inlineStr">
@@ -37278,7 +37278,7 @@
       </c>
       <c r="F1052" t="inlineStr">
         <is>
-          <t>Bloemgracht</t>
+          <t>Amsterdam, Bloemgracht</t>
         </is>
       </c>
       <c r="G1052" t="inlineStr">
@@ -37313,7 +37313,7 @@
       </c>
       <c r="F1053" t="inlineStr">
         <is>
-          <t>Rozengracht</t>
+          <t>Amsterdam, Rozengracht</t>
         </is>
       </c>
       <c r="G1053" t="inlineStr">
@@ -37453,7 +37453,7 @@
       </c>
       <c r="F1057" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Amsterdam, Leidseplein</t>
         </is>
       </c>
       <c r="G1057" t="inlineStr">
@@ -37488,7 +37488,7 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>Marnixplein</t>
+          <t>Amsterdam, Marnixplein</t>
         </is>
       </c>
       <c r="G1058" t="inlineStr">
@@ -37523,7 +37523,7 @@
       </c>
       <c r="F1059" t="inlineStr">
         <is>
-          <t>Elandsgracht</t>
+          <t>Amsterdam, Elandsgracht</t>
         </is>
       </c>
       <c r="G1059" t="inlineStr">
@@ -37558,7 +37558,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>Leidseplein</t>
+          <t>Amsterdam, Leidseplein</t>
         </is>
       </c>
       <c r="G1060" t="inlineStr">
@@ -37593,7 +37593,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>Marnixplein</t>
+          <t>Amsterdam, Marnixplein</t>
         </is>
       </c>
       <c r="G1061" t="inlineStr">
@@ -37628,7 +37628,7 @@
       </c>
       <c r="F1062" t="inlineStr">
         <is>
-          <t>Marnixplein</t>
+          <t>Amsterdam, Marnixplein</t>
         </is>
       </c>
       <c r="G1062" t="inlineStr">
@@ -37698,7 +37698,7 @@
       </c>
       <c r="F1064" t="inlineStr">
         <is>
-          <t>Hogeschool InHolland</t>
+          <t>Amsterdam, Hogeschool InHolland</t>
         </is>
       </c>
       <c r="G1064" t="inlineStr">
@@ -37733,7 +37733,7 @@
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>Hogeschool InHolland</t>
+          <t>Amsterdam, Hogeschool InHolland</t>
         </is>
       </c>
       <c r="G1065" t="inlineStr">
@@ -38538,7 +38538,7 @@
       </c>
       <c r="F1088" t="inlineStr">
         <is>
-          <t>Spaarndammerstraat</t>
+          <t>Amsterdam, Spaarndammerstraat</t>
         </is>
       </c>
       <c r="G1088" t="inlineStr">
@@ -38608,7 +38608,7 @@
       </c>
       <c r="F1090" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Amsterdam, Station Zuid</t>
         </is>
       </c>
       <c r="G1090" t="inlineStr">
@@ -38643,7 +38643,7 @@
       </c>
       <c r="F1091" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Amsterdam, Station Zuid</t>
         </is>
       </c>
       <c r="G1091" t="inlineStr">
@@ -38678,7 +38678,7 @@
       </c>
       <c r="F1092" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Amsterdam, Station Zuid</t>
         </is>
       </c>
       <c r="G1092" t="inlineStr">
@@ -38713,7 +38713,7 @@
       </c>
       <c r="F1093" t="inlineStr">
         <is>
-          <t>Station Zuid</t>
+          <t>Amsterdam, Station Zuid</t>
         </is>
       </c>
       <c r="G1093" t="inlineStr">
@@ -38748,7 +38748,7 @@
       </c>
       <c r="F1094" t="inlineStr">
         <is>
-          <t>De Boelelaan / VU</t>
+          <t>Amsterdam, De Boelelaan / VU</t>
         </is>
       </c>
       <c r="G1094" t="inlineStr">
@@ -38783,7 +38783,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>De Boelelaan / VU</t>
+          <t>Amsterdam, De Boelelaan / VU</t>
         </is>
       </c>
       <c r="G1095" t="inlineStr">
@@ -39137,7 +39137,7 @@
       </c>
       <c r="F1105" t="inlineStr">
         <is>
-          <t>Burgemeester de Vlugtlaan</t>
+          <t>Amsterdam, Burgemeester de Vlugtlaan</t>
         </is>
       </c>
       <c r="G1105" t="inlineStr">
@@ -39172,7 +39172,7 @@
       </c>
       <c r="F1106" t="inlineStr">
         <is>
-          <t>Burgemeester de Vlugtlaan</t>
+          <t>Amsterdam, Burgemeester de Vlugtlaan</t>
         </is>
       </c>
       <c r="G1106" t="inlineStr">
@@ -39242,7 +39242,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>Burgemeester Eliasstraat</t>
+          <t>Amsterdam, Burgemeester Eliasstraat</t>
         </is>
       </c>
       <c r="G1108" t="inlineStr">
@@ -39277,7 +39277,7 @@
       </c>
       <c r="F1109" t="inlineStr">
         <is>
-          <t>Burgemeester Eliasstraat</t>
+          <t>Amsterdam, Burgemeester Eliasstraat</t>
         </is>
       </c>
       <c r="G1109" t="inlineStr">
@@ -39312,7 +39312,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>Plein '40-'45</t>
+          <t>Amsterdam, Plein '40-'45</t>
         </is>
       </c>
       <c r="G1110" t="inlineStr">
@@ -39417,7 +39417,7 @@
       </c>
       <c r="F1113" t="inlineStr">
         <is>
-          <t>Plein '40-'45</t>
+          <t>Amsterdam, Plein '40-'45</t>
         </is>
       </c>
       <c r="G1113" t="inlineStr">
@@ -39452,7 +39452,7 @@
       </c>
       <c r="F1114" t="inlineStr">
         <is>
-          <t>Burgemeester Fockstraat</t>
+          <t>Amsterdam, Burgemeester Fockstraat</t>
         </is>
       </c>
       <c r="G1114" t="inlineStr">
@@ -39487,7 +39487,7 @@
       </c>
       <c r="F1115" t="inlineStr">
         <is>
-          <t>Burgemeester Fockstraat</t>
+          <t>Amsterdam, Burgemeester Fockstraat</t>
         </is>
       </c>
       <c r="G1115" t="inlineStr">
@@ -39522,7 +39522,7 @@
       </c>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>Olympiaweg</t>
+          <t>Amsterdam, Olympiaweg</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
@@ -39557,7 +39557,7 @@
       </c>
       <c r="F1117" t="inlineStr">
         <is>
-          <t>Olympiaweg</t>
+          <t>Amsterdam, Olympiaweg</t>
         </is>
       </c>
       <c r="G1117" t="inlineStr">
@@ -39592,7 +39592,7 @@
       </c>
       <c r="F1118" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Amsterdam, Amstelveenseweg</t>
         </is>
       </c>
       <c r="G1118" t="inlineStr">
@@ -39627,7 +39627,7 @@
       </c>
       <c r="F1119" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Amsterdam, Amstelveenseweg</t>
         </is>
       </c>
       <c r="G1119" t="inlineStr">
@@ -39662,7 +39662,7 @@
       </c>
       <c r="F1120" t="inlineStr">
         <is>
-          <t>Olympisch Stadion</t>
+          <t>Amsterdam, Olympisch Stadion</t>
         </is>
       </c>
       <c r="G1120" t="inlineStr">
@@ -39697,7 +39697,7 @@
       </c>
       <c r="F1121" t="inlineStr">
         <is>
-          <t>Olympisch Stadion</t>
+          <t>Amsterdam, Olympisch Stadion</t>
         </is>
       </c>
       <c r="G1121" t="inlineStr">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="F1122" t="inlineStr">
         <is>
-          <t>IJsbaanpad</t>
+          <t>Amsterdam, IJsbaanpad</t>
         </is>
       </c>
       <c r="G1122" t="inlineStr">
@@ -39767,7 +39767,7 @@
       </c>
       <c r="F1123" t="inlineStr">
         <is>
-          <t>IJsbaanpad</t>
+          <t>Amsterdam, IJsbaanpad</t>
         </is>
       </c>
       <c r="G1123" t="inlineStr">
@@ -39802,7 +39802,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>Olympiaplein</t>
+          <t>Amsterdam, Olympiaplein</t>
         </is>
       </c>
       <c r="G1124" t="inlineStr">
@@ -39837,7 +39837,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>Olympiaplein</t>
+          <t>Amsterdam, Olympiaplein</t>
         </is>
       </c>
       <c r="G1125" t="inlineStr">
@@ -39872,7 +39872,7 @@
       </c>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Amsterdam, Prinses Irenestraat</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
@@ -39907,7 +39907,7 @@
       </c>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>Prinses Irenestraat</t>
+          <t>Amsterdam, Prinses Irenestraat</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
@@ -39942,7 +39942,7 @@
       </c>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>Beethovenstraat</t>
+          <t>Amsterdam, Beethovenstraat</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -39977,7 +39977,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Amsterdam, Stadionweg</t>
         </is>
       </c>
       <c r="G1129" t="inlineStr">
@@ -40012,7 +40012,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>Stadionweg</t>
+          <t>Amsterdam, Stadionweg</t>
         </is>
       </c>
       <c r="G1130" t="inlineStr">
@@ -40047,7 +40047,7 @@
       </c>
       <c r="F1131" t="inlineStr">
         <is>
-          <t>Minervaplein</t>
+          <t>Amsterdam, Minervaplein</t>
         </is>
       </c>
       <c r="G1131" t="inlineStr">
@@ -40082,7 +40082,7 @@
       </c>
       <c r="F1132" t="inlineStr">
         <is>
-          <t>Minervaplein</t>
+          <t>Amsterdam, Minervaplein</t>
         </is>
       </c>
       <c r="G1132" t="inlineStr">
@@ -40117,7 +40117,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
+          <t>Amsterdam, Amsteldijk</t>
         </is>
       </c>
       <c r="G1133" t="inlineStr">
@@ -40152,7 +40152,7 @@
       </c>
       <c r="F1134" t="inlineStr">
         <is>
-          <t>Amsteldijk</t>
+          <t>Amsterdam, Amsteldijk</t>
         </is>
       </c>
       <c r="G1134" t="inlineStr">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Amsterdam, Station RAI</t>
         </is>
       </c>
       <c r="G1136" t="inlineStr">
@@ -40257,7 +40257,7 @@
       </c>
       <c r="F1137" t="inlineStr">
         <is>
-          <t>Station RAI</t>
+          <t>Amsterdam, Station RAI</t>
         </is>
       </c>
       <c r="G1137" t="inlineStr">
@@ -40362,7 +40362,7 @@
       </c>
       <c r="F1140" t="inlineStr">
         <is>
-          <t>Waalstraat</t>
+          <t>Amsterdam, Waalstraat</t>
         </is>
       </c>
       <c r="G1140" t="inlineStr">
@@ -40397,7 +40397,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Amsterdam, Maasstraat</t>
         </is>
       </c>
       <c r="G1141" t="inlineStr">
@@ -40432,7 +40432,7 @@
       </c>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>Maasstraat</t>
+          <t>Amsterdam, Maasstraat</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
@@ -40467,7 +40467,7 @@
       </c>
       <c r="F1143" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
+          <t>Amsterdam, Dintelstraat</t>
         </is>
       </c>
       <c r="G1143" t="inlineStr">
@@ -40502,7 +40502,7 @@
       </c>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>Dintelstraat</t>
+          <t>Amsterdam, Dintelstraat</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
@@ -40537,7 +40537,7 @@
       </c>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Amsterdam, Victorieplein</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
@@ -40572,7 +40572,7 @@
       </c>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Amsterdam, Victorieplein</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -40607,7 +40607,7 @@
       </c>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Amsterdam, Victorieplein</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
@@ -40642,7 +40642,7 @@
       </c>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>Victorieplein</t>
+          <t>Amsterdam, Victorieplein</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
@@ -40747,7 +40747,7 @@
       </c>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Amsterdam, Mercatorplein</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
@@ -40782,7 +40782,7 @@
       </c>
       <c r="F1152" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Amsterdam, Mercatorplein</t>
         </is>
       </c>
       <c r="G1152" t="inlineStr">
@@ -40817,7 +40817,7 @@
       </c>
       <c r="F1153" t="inlineStr">
         <is>
-          <t>Mercatorplein</t>
+          <t>Amsterdam, Mercatorplein</t>
         </is>
       </c>
       <c r="G1153" t="inlineStr">
@@ -40852,7 +40852,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>W. Schoutenstraat</t>
+          <t>Amsterdam, W. Schoutenstraat</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -40887,7 +40887,7 @@
       </c>
       <c r="F1155" t="inlineStr">
         <is>
-          <t>W. Schoutenstraat</t>
+          <t>Amsterdam, W. Schoutenstraat</t>
         </is>
       </c>
       <c r="G1155" t="inlineStr">
@@ -40922,7 +40922,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>Erasmusgracht</t>
+          <t>Amsterdam, Erasmusgracht</t>
         </is>
       </c>
       <c r="G1156" t="inlineStr">
@@ -40957,7 +40957,7 @@
       </c>
       <c r="F1157" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Amsterdam, Jan van Galenstraat</t>
         </is>
       </c>
       <c r="G1157" t="inlineStr">
@@ -40992,7 +40992,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Amsterdam, Jan van Galenstraat</t>
         </is>
       </c>
       <c r="G1158" t="inlineStr">
@@ -41027,7 +41027,7 @@
       </c>
       <c r="F1159" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Amsterdam, Bos en Lommerplein</t>
         </is>
       </c>
       <c r="G1159" t="inlineStr">
@@ -41062,7 +41062,7 @@
       </c>
       <c r="F1160" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Amsterdam, Bos en Lommerplein</t>
         </is>
       </c>
       <c r="G1160" t="inlineStr">
@@ -41097,7 +41097,7 @@
       </c>
       <c r="F1161" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Amsterdam, Bos en Lommerplein</t>
         </is>
       </c>
       <c r="G1161" t="inlineStr">
@@ -41132,7 +41132,7 @@
       </c>
       <c r="F1162" t="inlineStr">
         <is>
-          <t>Bos en Lommerplein</t>
+          <t>Amsterdam, Bos en Lommerplein</t>
         </is>
       </c>
       <c r="G1162" t="inlineStr">
@@ -41167,7 +41167,7 @@
       </c>
       <c r="F1163" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Amsterdam, Bos en Lommerweg</t>
         </is>
       </c>
       <c r="G1163" t="inlineStr">
@@ -41202,7 +41202,7 @@
       </c>
       <c r="F1164" t="inlineStr">
         <is>
-          <t>Egidiusstraat</t>
+          <t>Amsterdam, Egidiusstraat</t>
         </is>
       </c>
       <c r="G1164" t="inlineStr">
@@ -41237,7 +41237,7 @@
       </c>
       <c r="F1165" t="inlineStr">
         <is>
-          <t>Egidiusstraat</t>
+          <t>Amsterdam, Egidiusstraat</t>
         </is>
       </c>
       <c r="G1165" t="inlineStr">
@@ -41272,7 +41272,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>Bos en Lommerweg</t>
+          <t>Amsterdam, Bos en Lommerweg</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
@@ -41307,7 +41307,7 @@
       </c>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Amsterdam, Rokin</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
@@ -41342,7 +41342,7 @@
       </c>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>Rokin</t>
+          <t>Amsterdam, Rokin</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -41482,7 +41482,7 @@
       </c>
       <c r="F1172" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Amsterdam, Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="G1172" t="inlineStr">
@@ -41517,7 +41517,7 @@
       </c>
       <c r="F1173" t="inlineStr">
         <is>
-          <t>Nieuwezijds Kolk</t>
+          <t>Amsterdam, Nieuwezijds Kolk</t>
         </is>
       </c>
       <c r="G1173" t="inlineStr">
@@ -41552,7 +41552,7 @@
       </c>
       <c r="F1174" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Amsterdam, Westermarkt</t>
         </is>
       </c>
       <c r="G1174" t="inlineStr">
@@ -41587,7 +41587,7 @@
       </c>
       <c r="F1175" t="inlineStr">
         <is>
-          <t>Westermarkt</t>
+          <t>Amsterdam, Westermarkt</t>
         </is>
       </c>
       <c r="G1175" t="inlineStr">
@@ -41622,7 +41622,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Amsterdam, Marnixstraat</t>
         </is>
       </c>
       <c r="G1176" t="inlineStr">
@@ -41657,7 +41657,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>Marnixstraat</t>
+          <t>Amsterdam, Marnixstraat</t>
         </is>
       </c>
       <c r="G1177" t="inlineStr">
@@ -41692,7 +41692,7 @@
       </c>
       <c r="F1178" t="inlineStr">
         <is>
-          <t>Overamstel</t>
+          <t>Amsterdam, Overamstel</t>
         </is>
       </c>
       <c r="G1178" t="inlineStr">
@@ -41762,7 +41762,7 @@
       </c>
       <c r="F1180" t="inlineStr">
         <is>
-          <t>Westlandgracht</t>
+          <t>Amsterdam, Westlandgracht</t>
         </is>
       </c>
       <c r="G1180" t="inlineStr">
@@ -41797,7 +41797,7 @@
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>Westlandgracht</t>
+          <t>Amsterdam, Westlandgracht</t>
         </is>
       </c>
       <c r="G1181" t="inlineStr">
@@ -41832,7 +41832,7 @@
       </c>
       <c r="F1182" t="inlineStr">
         <is>
-          <t>Delflandlaan</t>
+          <t>Amsterdam, Delflandlaan</t>
         </is>
       </c>
       <c r="G1182" t="inlineStr">
@@ -41867,7 +41867,7 @@
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Amsterdam, Hoofddorpplein</t>
         </is>
       </c>
       <c r="G1183" t="inlineStr">
@@ -41902,7 +41902,7 @@
       </c>
       <c r="F1184" t="inlineStr">
         <is>
-          <t>Hoofddorpplein</t>
+          <t>Amsterdam, Hoofddorpplein</t>
         </is>
       </c>
       <c r="G1184" t="inlineStr">
@@ -41937,7 +41937,7 @@
       </c>
       <c r="F1185" t="inlineStr">
         <is>
-          <t>Aalsmeerplein</t>
+          <t>Amsterdam, Aalsmeerplein</t>
         </is>
       </c>
       <c r="G1185" t="inlineStr">
@@ -41972,7 +41972,7 @@
       </c>
       <c r="F1186" t="inlineStr">
         <is>
-          <t>Aalsmeerplein</t>
+          <t>Amsterdam, Aalsmeerplein</t>
         </is>
       </c>
       <c r="G1186" t="inlineStr">
@@ -42007,7 +42007,7 @@
       </c>
       <c r="F1187" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstraat</t>
+          <t>Amsterdam, Haarlemmermeerstraat</t>
         </is>
       </c>
       <c r="G1187" t="inlineStr">
@@ -42042,7 +42042,7 @@
       </c>
       <c r="F1188" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Amsterdam, Amstelveenseweg</t>
         </is>
       </c>
       <c r="G1188" t="inlineStr">
@@ -42077,7 +42077,7 @@
       </c>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>Amstelveenseweg</t>
+          <t>Amsterdam, Amstelveenseweg</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
@@ -42112,7 +42112,7 @@
       </c>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>Zeilstraat</t>
+          <t>Amsterdam, Zeilstraat</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
@@ -42147,7 +42147,7 @@
       </c>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>Tweede van der Helststraat</t>
+          <t>Amsterdam, Tweede van der Helststraat</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
@@ -42182,7 +42182,7 @@
       </c>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
+          <t>Amsterdam, Van Woustraat</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -42217,7 +42217,7 @@
       </c>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
+          <t>Amsterdam, Van Woustraat</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -42252,7 +42252,7 @@
       </c>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Amsterdam, Ceintuurbaan</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
@@ -42287,7 +42287,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>Ceintuurbaan</t>
+          <t>Amsterdam, Ceintuurbaan</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
@@ -42322,7 +42322,7 @@
       </c>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>Overtoom</t>
+          <t>Amsterdam, Overtoom</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -42357,7 +42357,7 @@
       </c>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>Overtoom</t>
+          <t>Amsterdam, Overtoom</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -42392,7 +42392,7 @@
       </c>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>Surinameplein</t>
+          <t>Amsterdam, Surinameplein</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -42427,7 +42427,7 @@
       </c>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>Azartplein</t>
+          <t>Amsterdam, Azartplein</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
@@ -42462,7 +42462,7 @@
       </c>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>Azartplein</t>
+          <t>Amsterdam, Azartplein</t>
         </is>
       </c>
       <c r="G1200" t="inlineStr">
@@ -42497,7 +42497,7 @@
       </c>
       <c r="F1201" t="inlineStr">
         <is>
-          <t>Borneolaan</t>
+          <t>Amsterdam, Borneolaan</t>
         </is>
       </c>
       <c r="G1201" t="inlineStr">
@@ -42532,7 +42532,7 @@
       </c>
       <c r="F1202" t="inlineStr">
         <is>
-          <t>Hoofdweg</t>
+          <t>Amsterdam, Hoofdweg</t>
         </is>
       </c>
       <c r="G1202" t="inlineStr">
@@ -42567,7 +42567,7 @@
       </c>
       <c r="F1203" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Amsterdam, Postjesweg</t>
         </is>
       </c>
       <c r="G1203" t="inlineStr">
@@ -42602,7 +42602,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>Postjesweg</t>
+          <t>Amsterdam, Postjesweg</t>
         </is>
       </c>
       <c r="G1204" t="inlineStr">
@@ -42637,7 +42637,7 @@
       </c>
       <c r="F1205" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>Amsterdam, Witte de Withstraat</t>
         </is>
       </c>
       <c r="G1205" t="inlineStr">
@@ -42672,7 +42672,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>Corantijnstraat</t>
+          <t>Amsterdam, Corantijnstraat</t>
         </is>
       </c>
       <c r="G1206" t="inlineStr">
@@ -42707,7 +42707,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>Corantijnstraat</t>
+          <t>Amsterdam, Corantijnstraat</t>
         </is>
       </c>
       <c r="G1207" t="inlineStr">
@@ -42742,7 +42742,7 @@
       </c>
       <c r="F1208" t="inlineStr">
         <is>
-          <t>Witte de Withstraat</t>
+          <t>Amsterdam, Witte de Withstraat</t>
         </is>
       </c>
       <c r="G1208" t="inlineStr">
@@ -42777,7 +42777,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>Jan Pieter Heijestraat</t>
+          <t>Amsterdam, Jan Pieter Heijestraat</t>
         </is>
       </c>
       <c r="G1209" t="inlineStr">
@@ -42812,7 +42812,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>Jan Pieter Heijestraat</t>
+          <t>Amsterdam, Jan Pieter Heijestraat</t>
         </is>
       </c>
       <c r="G1210" t="inlineStr">
@@ -42847,7 +42847,7 @@
       </c>
       <c r="F1211" t="inlineStr">
         <is>
-          <t>Ten Katestraat</t>
+          <t>Amsterdam, Ten Katestraat</t>
         </is>
       </c>
       <c r="G1211" t="inlineStr">
@@ -42882,7 +42882,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>Ten Katestraat</t>
+          <t>Amsterdam, Ten Katestraat</t>
         </is>
       </c>
       <c r="G1212" t="inlineStr">
@@ -42952,7 +42952,7 @@
       </c>
       <c r="F1214" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
+          <t>Amsterdam, Wibautstraat</t>
         </is>
       </c>
       <c r="G1214" t="inlineStr">
@@ -42987,7 +42987,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>Wibautstraat</t>
+          <t>Amsterdam, Wibautstraat</t>
         </is>
       </c>
       <c r="G1215" t="inlineStr">
@@ -43022,7 +43022,7 @@
       </c>
       <c r="F1216" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
+          <t>Amsterdam, Lutmastraat</t>
         </is>
       </c>
       <c r="G1216" t="inlineStr">
@@ -43057,7 +43057,7 @@
       </c>
       <c r="F1217" t="inlineStr">
         <is>
-          <t>Lutmastraat</t>
+          <t>Amsterdam, Lutmastraat</t>
         </is>
       </c>
       <c r="G1217" t="inlineStr">
@@ -43092,7 +43092,7 @@
       </c>
       <c r="F1218" t="inlineStr">
         <is>
-          <t>Amsterkade</t>
+          <t>Amsterdam, Amsterkade</t>
         </is>
       </c>
       <c r="G1218" t="inlineStr">
@@ -43127,7 +43127,7 @@
       </c>
       <c r="F1219" t="inlineStr">
         <is>
-          <t>Amsterkade</t>
+          <t>Amsterdam, Amsterkade</t>
         </is>
       </c>
       <c r="G1219" t="inlineStr">
@@ -43162,7 +43162,7 @@
       </c>
       <c r="F1220" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Amsterdam, Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="G1220" t="inlineStr">
@@ -43197,7 +43197,7 @@
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>Frederik Hendrikplantsoen</t>
+          <t>Amsterdam, Frederik Hendrikplantsoen</t>
         </is>
       </c>
       <c r="G1221" t="inlineStr">
@@ -43232,7 +43232,7 @@
       </c>
       <c r="F1222" t="inlineStr">
         <is>
-          <t>Bilderdijkstraat</t>
+          <t>Amsterdam, Bilderdijkstraat</t>
         </is>
       </c>
       <c r="G1222" t="inlineStr">
@@ -43302,7 +43302,7 @@
       </c>
       <c r="F1224" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Amsterdam, Waterlooplein</t>
         </is>
       </c>
       <c r="G1224" t="inlineStr">
@@ -43337,7 +43337,7 @@
       </c>
       <c r="F1225" t="inlineStr">
         <is>
-          <t>Piet Heinkade</t>
+          <t>Amsterdam, Piet Heinkade</t>
         </is>
       </c>
       <c r="G1225" t="inlineStr">
@@ -43372,7 +43372,7 @@
       </c>
       <c r="F1226" t="inlineStr">
         <is>
-          <t>Banne Buikslootlaan</t>
+          <t>Amsterdam, Banne Buikslootlaan</t>
         </is>
       </c>
       <c r="G1226" t="inlineStr">
@@ -43477,7 +43477,7 @@
       </c>
       <c r="F1229" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Amsterdam, Frederiksplein</t>
         </is>
       </c>
       <c r="G1229" t="inlineStr">
@@ -43512,7 +43512,7 @@
       </c>
       <c r="F1230" t="inlineStr">
         <is>
-          <t>Frederiksplein</t>
+          <t>Amsterdam, Frederiksplein</t>
         </is>
       </c>
       <c r="G1230" t="inlineStr">
@@ -43547,7 +43547,7 @@
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Amsterdam, Molukkenstraat</t>
         </is>
       </c>
       <c r="G1231" t="inlineStr">
@@ -43582,7 +43582,7 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Amsterdam, Molukkenstraat</t>
         </is>
       </c>
       <c r="G1232" t="inlineStr">
@@ -43617,7 +43617,7 @@
       </c>
       <c r="F1233" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Amsterdam, Molukkenstraat</t>
         </is>
       </c>
       <c r="G1233" t="inlineStr">
@@ -43652,7 +43652,7 @@
       </c>
       <c r="F1234" t="inlineStr">
         <is>
-          <t>Molukkenstraat</t>
+          <t>Amsterdam, Molukkenstraat</t>
         </is>
       </c>
       <c r="G1234" t="inlineStr">
@@ -43687,7 +43687,7 @@
       </c>
       <c r="F1235" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Amsterdam, Muiderpoortstation</t>
         </is>
       </c>
       <c r="G1235" t="inlineStr">
@@ -43722,7 +43722,7 @@
       </c>
       <c r="F1236" t="inlineStr">
         <is>
-          <t>Muiderpoortstation</t>
+          <t>Amsterdam, Muiderpoortstation</t>
         </is>
       </c>
       <c r="G1236" t="inlineStr">
@@ -43757,7 +43757,7 @@
       </c>
       <c r="F1237" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>Amsterdam, Soembawastraat</t>
         </is>
       </c>
       <c r="G1237" t="inlineStr">
@@ -43792,7 +43792,7 @@
       </c>
       <c r="F1238" t="inlineStr">
         <is>
-          <t>Soembawastraat</t>
+          <t>Amsterdam, Soembawastraat</t>
         </is>
       </c>
       <c r="G1238" t="inlineStr">
@@ -43827,7 +43827,7 @@
       </c>
       <c r="F1239" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Amsterdam, Insulindeweg</t>
         </is>
       </c>
       <c r="G1239" t="inlineStr">
@@ -43862,7 +43862,7 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>Insulindeweg</t>
+          <t>Amsterdam, Insulindeweg</t>
         </is>
       </c>
       <c r="G1240" t="inlineStr">
@@ -43897,7 +43897,7 @@
       </c>
       <c r="F1241" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Amsterdam, Linnaeusstraat</t>
         </is>
       </c>
       <c r="G1241" t="inlineStr">
@@ -43932,7 +43932,7 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Amsterdam, Dapperstraat</t>
         </is>
       </c>
       <c r="G1242" t="inlineStr">
@@ -43967,7 +43967,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>Dapperstraat</t>
+          <t>Amsterdam, Dapperstraat</t>
         </is>
       </c>
       <c r="G1243" t="inlineStr">
@@ -44002,7 +44002,7 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>Linnaeusstraat</t>
+          <t>Amsterdam, Linnaeusstraat</t>
         </is>
       </c>
       <c r="G1244" t="inlineStr">
@@ -44037,7 +44037,7 @@
       </c>
       <c r="F1245" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
+          <t>Amsterdam, Wijttenbachstraat</t>
         </is>
       </c>
       <c r="G1245" t="inlineStr">
@@ -44072,7 +44072,7 @@
       </c>
       <c r="F1246" t="inlineStr">
         <is>
-          <t>Wijttenbachstraat</t>
+          <t>Amsterdam, Wijttenbachstraat</t>
         </is>
       </c>
       <c r="G1246" t="inlineStr">
@@ -44107,7 +44107,7 @@
       </c>
       <c r="F1247" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Amsterdam, Oostpoort</t>
         </is>
       </c>
       <c r="G1247" t="inlineStr">
@@ -44142,7 +44142,7 @@
       </c>
       <c r="F1248" t="inlineStr">
         <is>
-          <t>Oostpoort</t>
+          <t>Amsterdam, Oostpoort</t>
         </is>
       </c>
       <c r="G1248" t="inlineStr">
@@ -44177,7 +44177,7 @@
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>Hogeweg</t>
+          <t>Amsterdam, Hogeweg</t>
         </is>
       </c>
       <c r="G1249" t="inlineStr">
@@ -44212,7 +44212,7 @@
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>Hogeweg</t>
+          <t>Amsterdam, Hogeweg</t>
         </is>
       </c>
       <c r="G1250" t="inlineStr">
@@ -44247,7 +44247,7 @@
       </c>
       <c r="F1251" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
+          <t>Amsterdam, Hugo de Vrieslaan</t>
         </is>
       </c>
       <c r="G1251" t="inlineStr">
@@ -44282,7 +44282,7 @@
       </c>
       <c r="F1252" t="inlineStr">
         <is>
-          <t>Hugo de Vrieslaan</t>
+          <t>Amsterdam, Hugo de Vrieslaan</t>
         </is>
       </c>
       <c r="G1252" t="inlineStr">
@@ -44317,7 +44317,7 @@
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Amsterdam, Kruislaan</t>
         </is>
       </c>
       <c r="G1253" t="inlineStr">
@@ -44352,7 +44352,7 @@
       </c>
       <c r="F1254" t="inlineStr">
         <is>
-          <t>Kruislaan</t>
+          <t>Amsterdam, Kruislaan</t>
         </is>
       </c>
       <c r="G1254" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
+          <t>Amsterdam, Brinkstraat</t>
         </is>
       </c>
       <c r="G1255" t="inlineStr">
@@ -44422,7 +44422,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>Brinkstraat</t>
+          <t>Amsterdam, Brinkstraat</t>
         </is>
       </c>
       <c r="G1256" t="inlineStr">
@@ -44492,7 +44492,7 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Amsterdam, Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="G1258" t="inlineStr">
@@ -44527,7 +44527,7 @@
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>Artis</t>
+          <t>Amsterdam, Artis</t>
         </is>
       </c>
       <c r="G1259" t="inlineStr">
@@ -44562,7 +44562,7 @@
       </c>
       <c r="F1260" t="inlineStr">
         <is>
-          <t>Plantage Lepellaan</t>
+          <t>Amsterdam, Plantage Lepellaan</t>
         </is>
       </c>
       <c r="G1260" t="inlineStr">
@@ -44597,7 +44597,7 @@
       </c>
       <c r="F1261" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Amsterdam, Rembrandtplein</t>
         </is>
       </c>
       <c r="G1261" t="inlineStr">
@@ -44632,7 +44632,7 @@
       </c>
       <c r="F1262" t="inlineStr">
         <is>
-          <t>Rembrandtplein</t>
+          <t>Amsterdam, Rembrandtplein</t>
         </is>
       </c>
       <c r="G1262" t="inlineStr">
@@ -44667,7 +44667,7 @@
       </c>
       <c r="F1263" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Amsterdam, Waterlooplein</t>
         </is>
       </c>
       <c r="G1263" t="inlineStr">
@@ -44702,7 +44702,7 @@
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>Waterlooplein</t>
+          <t>Amsterdam, Waterlooplein</t>
         </is>
       </c>
       <c r="G1264" t="inlineStr">
@@ -44737,7 +44737,7 @@
       </c>
       <c r="F1265" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Amsterdam, Alexanderplein</t>
         </is>
       </c>
       <c r="G1265" t="inlineStr">
@@ -44772,7 +44772,7 @@
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>Alexanderplein</t>
+          <t>Amsterdam, Alexanderplein</t>
         </is>
       </c>
       <c r="G1266" t="inlineStr">
@@ -44807,7 +44807,7 @@
       </c>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
+          <t>Amsterdam, Eerste Van Swindenstraat</t>
         </is>
       </c>
       <c r="G1267" t="inlineStr">
@@ -44842,7 +44842,7 @@
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>Eerste Van Swindenstraat</t>
+          <t>Amsterdam, Eerste Van Swindenstraat</t>
         </is>
       </c>
       <c r="G1268" t="inlineStr">
@@ -44877,7 +44877,7 @@
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Amsterdam, Keizersgracht</t>
         </is>
       </c>
       <c r="G1269" t="inlineStr">
@@ -44912,7 +44912,7 @@
       </c>
       <c r="F1270" t="inlineStr">
         <is>
-          <t>Keizersgracht</t>
+          <t>Amsterdam, Keizersgracht</t>
         </is>
       </c>
       <c r="G1270" t="inlineStr">
@@ -44947,7 +44947,7 @@
       </c>
       <c r="F1271" t="inlineStr">
         <is>
-          <t>Emmastraat</t>
+          <t>Amsterdam, Emmastraat</t>
         </is>
       </c>
       <c r="G1271" t="inlineStr">
@@ -45017,7 +45017,7 @@
       </c>
       <c r="F1273" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Amsterdam, Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="G1273" t="inlineStr">
@@ -45052,7 +45052,7 @@
       </c>
       <c r="F1274" t="inlineStr">
         <is>
-          <t>Emmastraat</t>
+          <t>Amsterdam, Emmastraat</t>
         </is>
       </c>
       <c r="G1274" t="inlineStr">
@@ -45087,7 +45087,7 @@
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Amsterdam, Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="G1275" t="inlineStr">
@@ -45122,7 +45122,7 @@
       </c>
       <c r="F1276" t="inlineStr">
         <is>
-          <t>Haarlemmermeerstation</t>
+          <t>Amsterdam, Haarlemmermeerstation</t>
         </is>
       </c>
       <c r="G1276" t="inlineStr">
@@ -45227,7 +45227,7 @@
       </c>
       <c r="F1279" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
+          <t>Amsterdam, Roelof Hartplein</t>
         </is>
       </c>
       <c r="G1279" t="inlineStr">
@@ -45262,7 +45262,7 @@
       </c>
       <c r="F1280" t="inlineStr">
         <is>
-          <t>Roelof Hartplein</t>
+          <t>Amsterdam, Roelof Hartplein</t>
         </is>
       </c>
       <c r="G1280" t="inlineStr">
@@ -45367,7 +45367,7 @@
       </c>
       <c r="F1283" t="inlineStr">
         <is>
-          <t>Gerrit van der Veenstraat</t>
+          <t>Amsterdam, Gerrit van der Veenstraat</t>
         </is>
       </c>
       <c r="G1283" t="inlineStr">
@@ -45402,7 +45402,7 @@
       </c>
       <c r="F1284" t="inlineStr">
         <is>
-          <t>Gerrit van der Veenstraat</t>
+          <t>Amsterdam, Gerrit van der Veenstraat</t>
         </is>
       </c>
       <c r="G1284" t="inlineStr">
@@ -45437,7 +45437,7 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>Marco Polostraat</t>
+          <t>Amsterdam, Marco Polostraat</t>
         </is>
       </c>
       <c r="G1285" t="inlineStr">
@@ -45472,7 +45472,7 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>Marco Polostraat</t>
+          <t>Amsterdam, Marco Polostraat</t>
         </is>
       </c>
       <c r="G1286" t="inlineStr">
@@ -45577,7 +45577,7 @@
       </c>
       <c r="F1289" t="inlineStr">
         <is>
-          <t>Jan van Galenstraat</t>
+          <t>Amsterdam, Jan van Galenstraat</t>
         </is>
       </c>
       <c r="G1289" t="inlineStr">
@@ -45612,7 +45612,7 @@
       </c>
       <c r="F1290" t="inlineStr">
         <is>
-          <t>Pieter A van Heyningestraat</t>
+          <t>Amsterdam, Pieter A van Heyningestraat</t>
         </is>
       </c>
       <c r="G1290" t="inlineStr">
@@ -45647,7 +45647,7 @@
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>Pieter A van Heyningestraat</t>
+          <t>Amsterdam, Pieter A van Heyningestraat</t>
         </is>
       </c>
       <c r="G1291" t="inlineStr">
@@ -46316,7 +46316,7 @@
       </c>
       <c r="F1310" t="inlineStr">
         <is>
-          <t>Artis</t>
+          <t>Amsterdam, Artis</t>
         </is>
       </c>
       <c r="G1310" t="inlineStr">
@@ -46526,7 +46526,7 @@
       </c>
       <c r="F1316" t="inlineStr">
         <is>
-          <t>VUmc/Boechorststraat</t>
+          <t>Amsterdam, VUmc/Boechorststraat</t>
         </is>
       </c>
       <c r="G1316" t="inlineStr">
@@ -46771,7 +46771,7 @@
       </c>
       <c r="F1323" t="inlineStr">
         <is>
-          <t>Muntplein</t>
+          <t>Amsterdam, Muntplein</t>
         </is>
       </c>
       <c r="G1323" t="inlineStr">
@@ -47086,7 +47086,7 @@
       </c>
       <c r="F1332" t="inlineStr">
         <is>
-          <t>Zuiderzeeweg</t>
+          <t>Amsterdam, Zuiderzeeweg</t>
         </is>
       </c>
       <c r="G1332" t="inlineStr">
@@ -47261,7 +47261,7 @@
       </c>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>Station Noord</t>
+          <t>Amsterdam, Station Noord</t>
         </is>
       </c>
       <c r="G1337" t="inlineStr">
@@ -47296,7 +47296,7 @@
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>De Boelelaan / Parnassusweg</t>
+          <t>Amsterdam, De Boelelaan / Parnassusweg</t>
         </is>
       </c>
       <c r="G1338" t="inlineStr">
@@ -47331,7 +47331,7 @@
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>Antonio Vivaldistraat</t>
+          <t>Amsterdam, Antonio Vivaldistraat</t>
         </is>
       </c>
       <c r="G1339" t="inlineStr">
@@ -47860,7 +47860,7 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>Van der Madeweg</t>
+          <t>Amsterdam, Van der Madeweg</t>
         </is>
       </c>
       <c r="G1354" t="inlineStr">
@@ -47895,7 +47895,7 @@
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>Van Woustraat</t>
+          <t>Amsterdam, Van Woustraat</t>
         </is>
       </c>
       <c r="G1355" t="inlineStr">
@@ -47930,7 +47930,7 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>Weesperplein</t>
+          <t>Amsterdam, Weesperplein</t>
         </is>
       </c>
       <c r="G1356" t="inlineStr">
